--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>40.7597924634021</v>
+        <v>0.169425</v>
       </c>
       <c r="N2">
-        <v>40.7597924634021</v>
+        <v>0.508275</v>
       </c>
       <c r="O2">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P2">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q2">
-        <v>3157.385191207306</v>
+        <v>18.107905054275</v>
       </c>
       <c r="R2">
-        <v>3157.385191207306</v>
+        <v>162.971145488475</v>
       </c>
       <c r="S2">
-        <v>0.01626477250747796</v>
+        <v>7.637347544682064E-05</v>
       </c>
       <c r="T2">
-        <v>0.01626477250747796</v>
+        <v>7.637347544682064E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.2211258261467</v>
+        <v>69.07203766666666</v>
       </c>
       <c r="N3">
-        <v>31.2211258261467</v>
+        <v>207.216113</v>
       </c>
       <c r="O3">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="P3">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="Q3">
-        <v>2418.489260582158</v>
+        <v>7382.321971216209</v>
       </c>
       <c r="R3">
-        <v>2418.489260582158</v>
+        <v>66440.89774094589</v>
       </c>
       <c r="S3">
-        <v>0.01245846650091692</v>
+        <v>0.03113632328639241</v>
       </c>
       <c r="T3">
-        <v>0.01245846650091692</v>
+        <v>0.03113632328639242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>225.401301195466</v>
+        <v>31.266034</v>
       </c>
       <c r="N4">
-        <v>225.401301195466</v>
+        <v>93.798102</v>
       </c>
       <c r="O4">
-        <v>0.7579515062662449</v>
+        <v>0.0934159556350244</v>
       </c>
       <c r="P4">
-        <v>0.7579515062662449</v>
+        <v>0.09341595563502442</v>
       </c>
       <c r="Q4">
-        <v>17460.3129079333</v>
+        <v>3341.669618390049</v>
       </c>
       <c r="R4">
-        <v>17460.3129079333</v>
+        <v>30075.02656551044</v>
       </c>
       <c r="S4">
-        <v>0.08994405185270603</v>
+        <v>0.01409411645281664</v>
       </c>
       <c r="T4">
-        <v>0.08994405185270603</v>
+        <v>0.01409411645281664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.7597924634021</v>
+        <v>234.189438</v>
       </c>
       <c r="N5">
-        <v>40.7597924634021</v>
+        <v>702.5683140000001</v>
       </c>
       <c r="O5">
-        <v>0.137061968714831</v>
+        <v>0.6997059540842084</v>
       </c>
       <c r="P5">
-        <v>0.137061968714831</v>
+        <v>0.6997059540842085</v>
       </c>
       <c r="Q5">
-        <v>3137.288789320852</v>
+        <v>25029.83684826927</v>
       </c>
       <c r="R5">
-        <v>3137.288789320852</v>
+        <v>225268.5316344235</v>
       </c>
       <c r="S5">
-        <v>0.0161612490584505</v>
+        <v>0.1055680170753886</v>
       </c>
       <c r="T5">
-        <v>0.0161612490584505</v>
+        <v>0.1055680170753887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H6">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J6">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>31.2211258261467</v>
+        <v>0.169425</v>
       </c>
       <c r="N6">
-        <v>31.2211258261467</v>
+        <v>0.508275</v>
       </c>
       <c r="O6">
-        <v>0.1049865250189242</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P6">
-        <v>0.1049865250189242</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q6">
-        <v>2403.095848250308</v>
+        <v>13.085187979275</v>
       </c>
       <c r="R6">
-        <v>2403.095848250308</v>
+        <v>117.766691813475</v>
       </c>
       <c r="S6">
-        <v>0.01237916976183403</v>
+        <v>5.518922701752613E-05</v>
       </c>
       <c r="T6">
-        <v>0.01237916976183403</v>
+        <v>5.518922701752613E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H7">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J7">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>225.401301195466</v>
+        <v>69.07203766666666</v>
       </c>
       <c r="N7">
-        <v>225.401301195466</v>
+        <v>207.216113</v>
       </c>
       <c r="O7">
-        <v>0.7579515062662449</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="P7">
-        <v>0.7579515062662449</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="Q7">
-        <v>17349.1799786226</v>
+        <v>5334.635366562766</v>
       </c>
       <c r="R7">
-        <v>17349.1799786226</v>
+        <v>48011.71829906489</v>
       </c>
       <c r="S7">
-        <v>0.08937156807139175</v>
+        <v>0.02249982214755072</v>
       </c>
       <c r="T7">
-        <v>0.08937156807139175</v>
+        <v>0.02249982214755073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.7597924634021</v>
+        <v>31.266034</v>
       </c>
       <c r="N8">
-        <v>40.7597924634021</v>
+        <v>93.798102</v>
       </c>
       <c r="O8">
-        <v>0.137061968714831</v>
+        <v>0.0934159556350244</v>
       </c>
       <c r="P8">
-        <v>0.137061968714831</v>
+        <v>0.09341595563502442</v>
       </c>
       <c r="Q8">
-        <v>4960.935078405232</v>
+        <v>2414.767196437382</v>
       </c>
       <c r="R8">
-        <v>4960.935078405232</v>
+        <v>21732.90476793644</v>
       </c>
       <c r="S8">
-        <v>0.02555547568264079</v>
+        <v>0.01018473217272356</v>
       </c>
       <c r="T8">
-        <v>0.02555547568264079</v>
+        <v>0.01018473217272357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.2211258261467</v>
+        <v>234.189438</v>
       </c>
       <c r="N9">
-        <v>31.2211258261467</v>
+        <v>702.5683140000001</v>
       </c>
       <c r="O9">
-        <v>0.1049865250189242</v>
+        <v>0.6997059540842084</v>
       </c>
       <c r="P9">
-        <v>0.1049865250189242</v>
+        <v>0.6997059540842085</v>
       </c>
       <c r="Q9">
-        <v>3799.969748062521</v>
+        <v>18087.13483246728</v>
       </c>
       <c r="R9">
-        <v>3799.969748062521</v>
+        <v>162784.2134922055</v>
       </c>
       <c r="S9">
-        <v>0.01957494564161882</v>
+        <v>0.07628587315265668</v>
       </c>
       <c r="T9">
-        <v>0.01957494564161882</v>
+        <v>0.0762858731526567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H10">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I10">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J10">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>225.401301195466</v>
+        <v>0.169425</v>
       </c>
       <c r="N10">
-        <v>225.401301195466</v>
+        <v>0.508275</v>
       </c>
       <c r="O10">
-        <v>0.7579515062662449</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P10">
-        <v>0.7579515062662449</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q10">
-        <v>27433.92824737257</v>
+        <v>23.156388396225</v>
       </c>
       <c r="R10">
-        <v>27433.92824737257</v>
+        <v>208.407495566025</v>
       </c>
       <c r="S10">
-        <v>0.1413215603761574</v>
+        <v>9.766639792484491E-05</v>
       </c>
       <c r="T10">
-        <v>0.1413215603761574</v>
+        <v>9.766639792484491E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H11">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I11">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J11">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.7597924634021</v>
+        <v>69.07203766666666</v>
       </c>
       <c r="N11">
-        <v>40.7597924634021</v>
+        <v>207.216113</v>
       </c>
       <c r="O11">
-        <v>0.137061968714831</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="P11">
-        <v>0.137061968714831</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="Q11">
-        <v>5721.320285179977</v>
+        <v>9440.513097406027</v>
       </c>
       <c r="R11">
-        <v>5721.320285179977</v>
+        <v>84964.61787665424</v>
       </c>
       <c r="S11">
-        <v>0.02947248031061074</v>
+        <v>0.03981712920898652</v>
       </c>
       <c r="T11">
-        <v>0.02947248031061074</v>
+        <v>0.03981712920898652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H12">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I12">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J12">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.2211258261467</v>
+        <v>31.266034</v>
       </c>
       <c r="N12">
-        <v>31.2211258261467</v>
+        <v>93.798102</v>
       </c>
       <c r="O12">
-        <v>0.1049865250189242</v>
+        <v>0.0934159556350244</v>
       </c>
       <c r="P12">
-        <v>0.1049865250189242</v>
+        <v>0.09341595563502442</v>
       </c>
       <c r="Q12">
-        <v>4382.40848933852</v>
+        <v>4273.326999637458</v>
       </c>
       <c r="R12">
-        <v>4382.40848933852</v>
+        <v>38459.94299673713</v>
       </c>
       <c r="S12">
-        <v>0.02257528708009044</v>
+        <v>0.01802355566283447</v>
       </c>
       <c r="T12">
-        <v>0.02257528708009044</v>
+        <v>0.01802355566283447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H13">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I13">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J13">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>225.401301195466</v>
+        <v>234.189438</v>
       </c>
       <c r="N13">
-        <v>225.401301195466</v>
+        <v>702.5683140000001</v>
       </c>
       <c r="O13">
-        <v>0.7579515062662449</v>
+        <v>0.6997059540842084</v>
       </c>
       <c r="P13">
-        <v>0.7579515062662449</v>
+        <v>0.6997059540842085</v>
       </c>
       <c r="Q13">
-        <v>31638.85189046281</v>
+        <v>32008.15454992861</v>
       </c>
       <c r="R13">
-        <v>31638.85189046281</v>
+        <v>288073.3909493575</v>
       </c>
       <c r="S13">
-        <v>0.1629825622256107</v>
+        <v>0.1350003768127714</v>
       </c>
       <c r="T13">
-        <v>0.1629825622256107</v>
+        <v>0.1350003768127714</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H14">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I14">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J14">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>40.7597924634021</v>
+        <v>0.169425</v>
       </c>
       <c r="N14">
-        <v>40.7597924634021</v>
+        <v>0.508275</v>
       </c>
       <c r="O14">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P14">
-        <v>0.137061968714831</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q14">
-        <v>7913.900662929337</v>
+        <v>24.3049851351</v>
       </c>
       <c r="R14">
-        <v>7913.900662929337</v>
+        <v>218.7448662159</v>
       </c>
       <c r="S14">
-        <v>0.04076721278346979</v>
+        <v>0.0001025108194397489</v>
       </c>
       <c r="T14">
-        <v>0.04076721278346979</v>
+        <v>0.0001025108194397489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H15">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I15">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J15">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.2211258261467</v>
+        <v>69.07203766666666</v>
       </c>
       <c r="N15">
-        <v>31.2211258261467</v>
+        <v>207.216113</v>
       </c>
       <c r="O15">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="P15">
-        <v>0.1049865250189242</v>
+        <v>0.2063718860630059</v>
       </c>
       <c r="Q15">
-        <v>6061.877979256019</v>
+        <v>9908.778803242734</v>
       </c>
       <c r="R15">
-        <v>6061.877979256019</v>
+        <v>89179.00922918461</v>
       </c>
       <c r="S15">
-        <v>0.03122680963198825</v>
+        <v>0.04179212738133804</v>
       </c>
       <c r="T15">
-        <v>0.03122680963198825</v>
+        <v>0.04179212738133804</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H16">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I16">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J16">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>225.401301195466</v>
+        <v>31.266034</v>
       </c>
       <c r="N16">
-        <v>225.401301195466</v>
+        <v>93.798102</v>
       </c>
       <c r="O16">
-        <v>0.7579515062662449</v>
+        <v>0.0934159556350244</v>
       </c>
       <c r="P16">
-        <v>0.7579515062662449</v>
+        <v>0.09341595563502442</v>
       </c>
       <c r="Q16">
-        <v>43763.80249133008</v>
+        <v>4485.291377326434</v>
       </c>
       <c r="R16">
-        <v>43763.80249133008</v>
+        <v>40367.62239593791</v>
       </c>
       <c r="S16">
-        <v>0.2254423355015176</v>
+        <v>0.01891755505959007</v>
       </c>
       <c r="T16">
-        <v>0.2254423355015176</v>
+        <v>0.01891755505959008</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.1054306722281</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H17">
-        <v>42.1054306722281</v>
+        <v>430.367156</v>
       </c>
       <c r="I17">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J17">
-        <v>0.06450205301351841</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.7597924634021</v>
+        <v>234.189438</v>
       </c>
       <c r="N17">
-        <v>40.7597924634021</v>
+        <v>702.5683140000001</v>
       </c>
       <c r="O17">
-        <v>0.137061968714831</v>
+        <v>0.6997059540842084</v>
       </c>
       <c r="P17">
-        <v>0.137061968714831</v>
+        <v>0.6997059540842085</v>
       </c>
       <c r="Q17">
-        <v>1716.208615782183</v>
+        <v>33595.81413243277</v>
       </c>
       <c r="R17">
-        <v>1716.208615782183</v>
+        <v>302362.327191895</v>
       </c>
       <c r="S17">
-        <v>0.008840778372181229</v>
+        <v>0.1416966279682116</v>
       </c>
       <c r="T17">
-        <v>0.008840778372181229</v>
+        <v>0.1416966279682117</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H18">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I18">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J18">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>31.2211258261467</v>
+        <v>0.169425</v>
       </c>
       <c r="N18">
-        <v>31.2211258261467</v>
+        <v>0.508275</v>
       </c>
       <c r="O18">
-        <v>0.1049865250189242</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="P18">
-        <v>0.1049865250189242</v>
+        <v>0.0005062042177611658</v>
       </c>
       <c r="Q18">
-        <v>1314.57894898173</v>
+        <v>33.6475018422</v>
       </c>
       <c r="R18">
-        <v>1314.57894898173</v>
+        <v>302.8275165798</v>
       </c>
       <c r="S18">
-        <v>0.006771846402475724</v>
+        <v>0.0001419146305489065</v>
       </c>
       <c r="T18">
-        <v>0.006771846402475724</v>
+        <v>0.0001419146305489065</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H19">
+        <v>595.794632</v>
+      </c>
+      <c r="I19">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J19">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>69.07203766666666</v>
+      </c>
+      <c r="N19">
+        <v>207.216113</v>
+      </c>
+      <c r="O19">
+        <v>0.2063718860630059</v>
+      </c>
+      <c r="P19">
+        <v>0.2063718860630059</v>
+      </c>
+      <c r="Q19">
+        <v>13717.5830877006</v>
+      </c>
+      <c r="R19">
+        <v>123458.2477893054</v>
+      </c>
+      <c r="S19">
+        <v>0.05785647163479506</v>
+      </c>
+      <c r="T19">
+        <v>0.05785647163479506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H20">
+        <v>595.794632</v>
+      </c>
+      <c r="I20">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J20">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>31.266034</v>
+      </c>
+      <c r="N20">
+        <v>93.798102</v>
+      </c>
+      <c r="O20">
+        <v>0.0934159556350244</v>
+      </c>
+      <c r="P20">
+        <v>0.09341595563502442</v>
+      </c>
+      <c r="Q20">
+        <v>6209.378407043163</v>
+      </c>
+      <c r="R20">
+        <v>55884.40566338846</v>
+      </c>
+      <c r="S20">
+        <v>0.02618921448333805</v>
+      </c>
+      <c r="T20">
+        <v>0.02618921448333806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H21">
+        <v>595.794632</v>
+      </c>
+      <c r="I21">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J21">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>234.189438</v>
+      </c>
+      <c r="N21">
+        <v>702.5683140000001</v>
+      </c>
+      <c r="O21">
+        <v>0.6997059540842084</v>
+      </c>
+      <c r="P21">
+        <v>0.6997059540842085</v>
+      </c>
+      <c r="Q21">
+        <v>46509.60334383228</v>
+      </c>
+      <c r="R21">
+        <v>418586.4300944905</v>
+      </c>
+      <c r="S21">
+        <v>0.1961629486334723</v>
+      </c>
+      <c r="T21">
+        <v>0.1961629486334723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H22">
+        <v>136.651993</v>
+      </c>
+      <c r="I22">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J22">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.169425</v>
+      </c>
+      <c r="N22">
+        <v>0.508275</v>
+      </c>
+      <c r="O22">
+        <v>0.0005062042177611658</v>
+      </c>
+      <c r="P22">
+        <v>0.0005062042177611658</v>
+      </c>
+      <c r="Q22">
+        <v>7.717421304675002</v>
+      </c>
+      <c r="R22">
+        <v>69.45679174207501</v>
+      </c>
+      <c r="S22">
+        <v>3.254966738331869E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.254966738331869E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H23">
+        <v>136.651993</v>
+      </c>
+      <c r="I23">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J23">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>69.07203766666666</v>
+      </c>
+      <c r="N23">
+        <v>207.216113</v>
+      </c>
+      <c r="O23">
+        <v>0.2063718860630059</v>
+      </c>
+      <c r="P23">
+        <v>0.2063718860630059</v>
+      </c>
+      <c r="Q23">
+        <v>3146.27720257369</v>
+      </c>
+      <c r="R23">
+        <v>28316.49482316321</v>
+      </c>
+      <c r="S23">
+        <v>0.0132700124039431</v>
+      </c>
+      <c r="T23">
+        <v>0.0132700124039431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H24">
+        <v>136.651993</v>
+      </c>
+      <c r="I24">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J24">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>31.266034</v>
+      </c>
+      <c r="N24">
+        <v>93.798102</v>
+      </c>
+      <c r="O24">
+        <v>0.0934159556350244</v>
+      </c>
+      <c r="P24">
+        <v>0.09341595563502442</v>
+      </c>
+      <c r="Q24">
+        <v>1424.188619768588</v>
+      </c>
+      <c r="R24">
+        <v>12817.69757791729</v>
+      </c>
+      <c r="S24">
+        <v>0.006006781803721605</v>
+      </c>
+      <c r="T24">
+        <v>0.006006781803721606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="H19">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="I19">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="J19">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>225.401301195466</v>
-      </c>
-      <c r="N19">
-        <v>225.401301195466</v>
-      </c>
-      <c r="O19">
-        <v>0.7579515062662449</v>
-      </c>
-      <c r="P19">
-        <v>0.7579515062662449</v>
-      </c>
-      <c r="Q19">
-        <v>9490.6188609157</v>
-      </c>
-      <c r="R19">
-        <v>9490.6188609157</v>
-      </c>
-      <c r="S19">
-        <v>0.04888942823886146</v>
-      </c>
-      <c r="T19">
-        <v>0.04888942823886146</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H25">
+        <v>136.651993</v>
+      </c>
+      <c r="I25">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J25">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>234.189438</v>
+      </c>
+      <c r="N25">
+        <v>702.5683140000001</v>
+      </c>
+      <c r="O25">
+        <v>0.6997059540842084</v>
+      </c>
+      <c r="P25">
+        <v>0.6997059540842085</v>
+      </c>
+      <c r="Q25">
+        <v>10667.48448074998</v>
+      </c>
+      <c r="R25">
+        <v>96007.36032674983</v>
+      </c>
+      <c r="S25">
+        <v>0.04499211044170773</v>
+      </c>
+      <c r="T25">
+        <v>0.04499211044170775</v>
       </c>
     </row>
   </sheetData>
